--- a/teaching/traditional_assets/database/data/egypt/egypt_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1475</v>
+        <v>0.0183</v>
       </c>
       <c r="E2">
-        <v>0.0368</v>
+        <v>-0.22</v>
       </c>
       <c r="G2">
-        <v>0.05883992290218473</v>
+        <v>0.03160022553252584</v>
       </c>
       <c r="H2">
-        <v>0.05883992290218473</v>
+        <v>0.03160022553252584</v>
       </c>
       <c r="I2">
-        <v>-0.02331264361151455</v>
+        <v>-0.03943681523732735</v>
       </c>
       <c r="J2">
-        <v>-0.01692962135101386</v>
+        <v>-0.03257684554421934</v>
       </c>
       <c r="K2">
-        <v>43.432</v>
+        <v>-99.461</v>
       </c>
       <c r="L2">
-        <v>0.04061756808950978</v>
+        <v>-0.04728433927622315</v>
       </c>
       <c r="M2">
-        <v>39.636</v>
+        <v>15.225</v>
       </c>
       <c r="N2">
-        <v>0.09740489531111765</v>
+        <v>0.0360790540060191</v>
       </c>
       <c r="O2">
-        <v>0.9125990053416834</v>
+        <v>-0.1530750746523763</v>
       </c>
       <c r="P2">
-        <v>18.936</v>
+        <v>13.648</v>
       </c>
       <c r="Q2">
-        <v>0.04653494544382188</v>
+        <v>0.03234199862555984</v>
       </c>
       <c r="R2">
-        <v>0.4359918953766808</v>
+        <v>-0.1372196137179397</v>
       </c>
       <c r="S2">
-        <v>20.7</v>
+        <v>1.577</v>
       </c>
       <c r="T2">
-        <v>0.522252497729337</v>
+        <v>0.1035796387520526</v>
       </c>
       <c r="U2">
-        <v>296.036</v>
+        <v>391.047</v>
       </c>
       <c r="V2">
-        <v>0.7275041777253514</v>
+        <v>0.926673617858243</v>
       </c>
       <c r="W2">
-        <v>0.03614173228346457</v>
+        <v>0.09679887224700801</v>
       </c>
       <c r="X2">
-        <v>0.07766491010001837</v>
+        <v>0.1248169427716422</v>
       </c>
       <c r="Y2">
-        <v>-0.04152317781655381</v>
+        <v>-0.02801807052463423</v>
       </c>
       <c r="Z2">
-        <v>0.3843985296893115</v>
+        <v>0.6429880613512535</v>
       </c>
       <c r="AA2">
-        <v>0.0430090206185567</v>
+        <v>0.04196891884051226</v>
       </c>
       <c r="AB2">
-        <v>0.07762443993906028</v>
+        <v>0.07780891342410992</v>
       </c>
       <c r="AC2">
-        <v>-0.03456484973783308</v>
+        <v>-0.04239449490896967</v>
       </c>
       <c r="AD2">
-        <v>3829.465</v>
+        <v>4456.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>3829.465</v>
+        <v>4456.6</v>
       </c>
       <c r="AG2">
-        <v>3533.429</v>
+        <v>4065.553</v>
       </c>
       <c r="AH2">
-        <v>0.9039464071372172</v>
+        <v>0.9135016469922662</v>
       </c>
       <c r="AI2">
-        <v>0.7809218408267101</v>
+        <v>0.8810260911509918</v>
       </c>
       <c r="AJ2">
-        <v>0.8967299597066148</v>
+        <v>0.9059641322656964</v>
       </c>
       <c r="AK2">
-        <v>0.766846603073655</v>
+        <v>0.8710580877080104</v>
       </c>
       <c r="AL2">
-        <v>135.117</v>
+        <v>257.16</v>
       </c>
       <c r="AM2">
-        <v>116.892</v>
+        <v>233.151</v>
       </c>
       <c r="AN2">
-        <v>113.563209869221</v>
+        <v>43.7762759812974</v>
       </c>
       <c r="AO2">
-        <v>-0.1844919588208738</v>
+        <v>-0.3225773837299736</v>
       </c>
       <c r="AP2">
-        <v>104.7842294119391</v>
+        <v>39.93510078189463</v>
       </c>
       <c r="AQ2">
-        <v>-0.2132566813811039</v>
+        <v>-0.3557951713696275</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.337</v>
+        <v>-0.258</v>
       </c>
       <c r="E3">
-        <v>-0.153</v>
+        <v>-0.27</v>
       </c>
       <c r="G3">
-        <v>0.8031914893617021</v>
+        <v>1.065789473684211</v>
       </c>
       <c r="H3">
-        <v>0.8031914893617021</v>
+        <v>1.065789473684211</v>
       </c>
       <c r="I3">
-        <v>0.8936170212765958</v>
+        <v>0.8815789473684211</v>
       </c>
       <c r="J3">
-        <v>0.7603771181042172</v>
+        <v>0.8802532647407995</v>
       </c>
       <c r="K3">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="L3">
-        <v>0.7553191489361702</v>
+        <v>0.875</v>
       </c>
       <c r="M3">
-        <v>0.918</v>
+        <v>0.869</v>
       </c>
       <c r="N3">
-        <v>0.11875808538163</v>
+        <v>0.03434782608695652</v>
       </c>
       <c r="O3">
-        <v>0.6464788732394366</v>
+        <v>0.6533834586466165</v>
       </c>
       <c r="P3">
-        <v>0.918</v>
+        <v>0.869</v>
       </c>
       <c r="Q3">
-        <v>0.11875808538163</v>
+        <v>0.03434782608695652</v>
       </c>
       <c r="R3">
-        <v>0.6464788732394366</v>
+        <v>0.6533834586466165</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,31 +773,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.057</v>
+        <v>0.481</v>
       </c>
       <c r="V3">
-        <v>0.007373868046571798</v>
+        <v>0.01901185770750988</v>
       </c>
       <c r="W3">
-        <v>0.1463917525773196</v>
+        <v>0.1254716981132075</v>
       </c>
       <c r="X3">
-        <v>0.07757387035638978</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y3">
-        <v>0.06881788222092981</v>
+        <v>0.06092901192306656</v>
       </c>
       <c r="Z3">
-        <v>0.1954058829643488</v>
+        <v>0.1441714881912169</v>
       </c>
       <c r="AA3">
-        <v>0.1485821621490415</v>
+        <v>0.1269074231628583</v>
       </c>
       <c r="AB3">
-        <v>0.07757387035638978</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC3">
-        <v>0.07100829179265171</v>
+        <v>0.06236473697271734</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.057</v>
+        <v>-0.481</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.007428645901212043</v>
+        <v>-0.01938031346951932</v>
       </c>
       <c r="AK3">
-        <v>-0.005406430807170635</v>
+        <v>-0.03224076680742677</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.031</v>
+        <v>-0.019</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.03392857142857143</v>
+        <v>-0.358955223880597</v>
       </c>
       <c r="AQ3">
-        <v>-54.19354838709678</v>
+        <v>-70.52631578947368</v>
       </c>
     </row>
     <row r="4">
@@ -856,73 +856,73 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.7733333333333333</v>
+        <v>0.8513513513513513</v>
       </c>
       <c r="H4">
-        <v>0.7733333333333333</v>
+        <v>0.8513513513513513</v>
       </c>
       <c r="I4">
-        <v>0.8866666666666667</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="J4">
-        <v>0.8369268292682926</v>
+        <v>0.8134612031386226</v>
       </c>
       <c r="K4">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="L4">
-        <v>0.7733333333333333</v>
+        <v>0.7972972972972973</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>4.457000000000001</v>
       </c>
       <c r="N4">
-        <v>0.06265664160401002</v>
+        <v>0.04022563176895308</v>
       </c>
       <c r="O4">
-        <v>0.4310344827586207</v>
+        <v>0.3777118644067797</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>4.11</v>
       </c>
       <c r="Q4">
-        <v>0.06265664160401002</v>
+        <v>0.03709386281588448</v>
       </c>
       <c r="R4">
-        <v>0.4310344827586207</v>
+        <v>0.3483050847457627</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.3470000000000004</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.07785505945703396</v>
       </c>
       <c r="U4">
-        <v>3.43</v>
+        <v>21.9</v>
       </c>
       <c r="V4">
-        <v>0.04298245614035088</v>
+        <v>0.1976534296028881</v>
       </c>
       <c r="W4">
-        <v>0.1286031042128603</v>
+        <v>0.112810707456979</v>
       </c>
       <c r="X4">
-        <v>0.07757387035638978</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y4">
-        <v>0.05102923385647053</v>
+        <v>0.04826802126683799</v>
       </c>
       <c r="Z4">
-        <v>0.17472335468841</v>
+        <v>0.1462884254225561</v>
       </c>
       <c r="AA4">
-        <v>0.1462306632384903</v>
+        <v>0.1189999585494872</v>
       </c>
       <c r="AB4">
-        <v>0.07757387035638978</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC4">
-        <v>0.06865679288210048</v>
+        <v>0.05445727235934616</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-3.43</v>
+        <v>-21.9</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.04491292392300642</v>
+        <v>-0.2463442069741282</v>
       </c>
       <c r="AK4">
-        <v>-0.03376981392143349</v>
+        <v>-0.232484076433121</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>-0.2578947368421053</v>
+        <v>-1.697674418604651</v>
       </c>
     </row>
     <row r="5">
@@ -978,121 +978,118 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0161</v>
-      </c>
-      <c r="E5">
-        <v>0.0368</v>
+        <v>0.0012</v>
       </c>
       <c r="G5">
-        <v>0.2058080808080808</v>
+        <v>0.1210526315789474</v>
       </c>
       <c r="H5">
-        <v>0.2058080808080808</v>
+        <v>0.1210526315789474</v>
       </c>
       <c r="I5">
-        <v>0.09962121212121211</v>
+        <v>0.07673684210526316</v>
       </c>
       <c r="J5">
-        <v>0.08006888888888887</v>
+        <v>0.05788585607940447</v>
       </c>
       <c r="K5">
-        <v>2.58</v>
+        <v>5.61</v>
       </c>
       <c r="L5">
-        <v>0.03257575757575758</v>
+        <v>0.05905263157894737</v>
       </c>
       <c r="M5">
-        <v>20.883</v>
+        <v>1.55</v>
       </c>
       <c r="N5">
-        <v>0.8523673469387755</v>
+        <v>0.02828467153284672</v>
       </c>
       <c r="O5">
-        <v>8.094186046511627</v>
+        <v>0.2762923351158645</v>
       </c>
       <c r="P5">
-        <v>0.183</v>
+        <v>0.32</v>
       </c>
       <c r="Q5">
-        <v>0.007469387755102041</v>
+        <v>0.005839416058394161</v>
       </c>
       <c r="R5">
-        <v>0.07093023255813953</v>
+        <v>0.0570409982174688</v>
       </c>
       <c r="S5">
-        <v>20.7</v>
+        <v>1.23</v>
       </c>
       <c r="T5">
-        <v>0.991236891251257</v>
+        <v>0.7935483870967741</v>
       </c>
       <c r="U5">
-        <v>21.5</v>
+        <v>18.4</v>
       </c>
       <c r="V5">
-        <v>0.8775510204081632</v>
+        <v>0.3357664233576642</v>
       </c>
       <c r="W5">
-        <v>0.2850828729281768</v>
+        <v>0.43828125</v>
       </c>
       <c r="X5">
-        <v>0.2042451690297556</v>
+        <v>0.1850911993531435</v>
       </c>
       <c r="Y5">
-        <v>0.08083770389842121</v>
+        <v>0.2531900506468565</v>
       </c>
       <c r="Z5">
-        <v>2.061426340447683</v>
+        <v>1.712020183816904</v>
       </c>
       <c r="AA5">
-        <v>0.1650561166059344</v>
+        <v>0.09910175396546089</v>
       </c>
       <c r="AB5">
-        <v>0.1017236951368153</v>
+        <v>0.09107514065807884</v>
       </c>
       <c r="AC5">
-        <v>0.06333242146911908</v>
+        <v>0.008026613307382052</v>
       </c>
       <c r="AD5">
-        <v>68.59999999999999</v>
+        <v>154.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>68.59999999999999</v>
+        <v>154.3</v>
       </c>
       <c r="AG5">
-        <v>47.09999999999999</v>
+        <v>135.9</v>
       </c>
       <c r="AH5">
-        <v>0.7368421052631579</v>
+        <v>0.7379244380679101</v>
       </c>
       <c r="AI5">
-        <v>0.7555066079295154</v>
+        <v>0.7888548057259713</v>
       </c>
       <c r="AJ5">
-        <v>0.6578212290502793</v>
+        <v>0.7126376507603567</v>
       </c>
       <c r="AK5">
-        <v>0.6796536796536796</v>
+        <v>0.7669300225733635</v>
       </c>
       <c r="AL5">
-        <v>9.82</v>
+        <v>4.54</v>
       </c>
       <c r="AM5">
-        <v>9.59</v>
+        <v>4.216</v>
       </c>
       <c r="AN5">
-        <v>6.471698113207547</v>
+        <v>19.38442211055277</v>
       </c>
       <c r="AO5">
-        <v>0.8034623217922606</v>
+        <v>1.605726872246696</v>
       </c>
       <c r="AP5">
-        <v>4.443396226415094</v>
+        <v>17.07286432160804</v>
       </c>
       <c r="AQ5">
-        <v>0.8227320125130344</v>
+        <v>1.729127134724858</v>
       </c>
     </row>
     <row r="6">
@@ -1112,46 +1109,43 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.277</v>
-      </c>
-      <c r="E6">
-        <v>0.0538</v>
+        <v>0.151</v>
       </c>
       <c r="G6">
-        <v>0.820388349514563</v>
+        <v>1.095155709342561</v>
       </c>
       <c r="H6">
-        <v>0.820388349514563</v>
+        <v>1.095155709342561</v>
       </c>
       <c r="I6">
-        <v>0.5786407766990291</v>
+        <v>0.6799307958477508</v>
       </c>
       <c r="J6">
-        <v>0.2956957589217494</v>
+        <v>0.3399653979238754</v>
       </c>
       <c r="K6">
-        <v>0.459</v>
+        <v>0.293</v>
       </c>
       <c r="L6">
-        <v>0.0445631067961165</v>
+        <v>0.05069204152249134</v>
       </c>
       <c r="M6">
-        <v>0.245</v>
+        <v>0.226</v>
       </c>
       <c r="N6">
-        <v>0.03431372549019608</v>
+        <v>0.01066037735849057</v>
       </c>
       <c r="O6">
-        <v>0.5337690631808278</v>
+        <v>0.7713310580204779</v>
       </c>
       <c r="P6">
-        <v>0.245</v>
+        <v>0.226</v>
       </c>
       <c r="Q6">
-        <v>0.03431372549019608</v>
+        <v>0.01066037735849057</v>
       </c>
       <c r="R6">
-        <v>0.5337690631808278</v>
+        <v>0.7713310580204779</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1160,73 +1154,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.72</v>
+        <v>0.806</v>
       </c>
       <c r="V6">
-        <v>0.2408963585434174</v>
+        <v>0.03801886792452831</v>
       </c>
       <c r="W6">
-        <v>0.03614173228346457</v>
+        <v>0.02034722222222222</v>
       </c>
       <c r="X6">
-        <v>0.2340755248798059</v>
+        <v>0.2050988415248677</v>
       </c>
       <c r="Y6">
-        <v>-0.1979337925963414</v>
+        <v>-0.1847516193026454</v>
       </c>
       <c r="Z6">
-        <v>0.2459995223310246</v>
+        <v>0.1546281433921883</v>
       </c>
       <c r="AA6">
-        <v>0.07274101545006013</v>
+        <v>0.05256821829855537</v>
       </c>
       <c r="AB6">
-        <v>0.1007144208083229</v>
+        <v>0.09210330252735152</v>
       </c>
       <c r="AC6">
-        <v>-0.02797340535826276</v>
+        <v>-0.03953508422879615</v>
       </c>
       <c r="AD6">
-        <v>24.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>24.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AG6">
-        <v>22.98</v>
+        <v>68.794</v>
       </c>
       <c r="AH6">
-        <v>0.7757537688442211</v>
+        <v>0.7665198237885462</v>
       </c>
       <c r="AI6">
-        <v>0.620603015075377</v>
+        <v>0.8083623693379791</v>
       </c>
       <c r="AJ6">
-        <v>0.7629482071713147</v>
+        <v>0.7644287396937574</v>
       </c>
       <c r="AK6">
-        <v>0.6034663865546219</v>
+        <v>0.8065514573123549</v>
       </c>
       <c r="AL6">
-        <v>4.95</v>
+        <v>3.02</v>
       </c>
       <c r="AM6">
-        <v>4.95</v>
+        <v>3.02</v>
       </c>
       <c r="AN6">
-        <v>2.923076923076923</v>
+        <v>17.62025316455696</v>
       </c>
       <c r="AO6">
-        <v>1.204040404040404</v>
+        <v>1.301324503311258</v>
       </c>
       <c r="AP6">
-        <v>2.719526627218935</v>
+        <v>17.41620253164557</v>
       </c>
       <c r="AQ6">
-        <v>1.204040404040404</v>
+        <v>1.301324503311258</v>
       </c>
     </row>
     <row r="7">
@@ -1246,76 +1240,76 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0843</v>
+        <v>0.124</v>
+      </c>
+      <c r="E7">
+        <v>-0.22</v>
       </c>
       <c r="G7">
-        <v>0.2114384748700174</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="H7">
-        <v>0.2114384748700174</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="I7">
-        <v>0.4627383015597921</v>
+        <v>0.2202247191011236</v>
       </c>
       <c r="J7">
-        <v>0.231369150779896</v>
+        <v>0.1538334434897554</v>
       </c>
       <c r="K7">
-        <v>-0.06900000000000001</v>
+        <v>0.103</v>
       </c>
       <c r="L7">
-        <v>-0.1195840554592721</v>
+        <v>0.2314606741573033</v>
       </c>
       <c r="M7">
-        <v>0.128</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.02534653465346535</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>-1.855072463768116</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>0.128</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.02534653465346535</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>-1.855072463768116</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>0.021</v>
+        <v>0.01</v>
       </c>
       <c r="V7">
-        <v>0.004158415841584159</v>
+        <v>0.001371742112482853</v>
       </c>
       <c r="W7">
-        <v>-0.02218649517684888</v>
+        <v>0.0288515406162465</v>
       </c>
       <c r="X7">
-        <v>0.07757387035638978</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y7">
-        <v>-0.09976036553323867</v>
+        <v>-0.03569114557389449</v>
       </c>
       <c r="Z7">
-        <v>0.1858891752577319</v>
+        <v>0.1253874330797408</v>
       </c>
       <c r="AA7">
-        <v>0.0430090206185567</v>
+        <v>0.0192887806009978</v>
       </c>
       <c r="AB7">
-        <v>0.07757387035638978</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC7">
-        <v>-0.03456484973783308</v>
+        <v>-0.04525390558914319</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1327,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>-0.021</v>
+        <v>-0.01</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1336,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>-0.00417578047325512</v>
+        <v>-0.001373626373626374</v>
       </c>
       <c r="AK7">
-        <v>-0.005542359461599367</v>
+        <v>-0.002493765586034913</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1351,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>-0.07806691449814127</v>
+        <v>-0.09999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1362,7 +1356,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reacap Financial Investments Co. (CASE:REAC)</t>
+          <t>Arab Moltaqa Investments Company (CASE:AMIA)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1371,115 +1365,118 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.155</v>
+        <v>0.0183</v>
+      </c>
+      <c r="E8">
+        <v>-0.124</v>
       </c>
       <c r="G8">
-        <v>0.3176178660049628</v>
+        <v>0.1743654822335025</v>
       </c>
       <c r="H8">
-        <v>0.3176178660049628</v>
+        <v>0.1743654822335025</v>
       </c>
       <c r="I8">
-        <v>0.2878411910669975</v>
+        <v>0.1918781725888325</v>
       </c>
       <c r="J8">
-        <v>0.1593751561276999</v>
+        <v>0.1374769588520546</v>
       </c>
       <c r="K8">
-        <v>0.909</v>
+        <v>3.49</v>
       </c>
       <c r="L8">
-        <v>0.2255583126550868</v>
+        <v>0.0885786802030457</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>4.5</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.1465798045602606</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>1.289398280802292</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>4.5</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.1465798045602606</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>1.289398280802292</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>3.17</v>
+        <v>11.6</v>
       </c>
       <c r="V8">
-        <v>0.09814241486068112</v>
+        <v>0.3778501628664495</v>
       </c>
       <c r="W8">
-        <v>0.02904153354632588</v>
+        <v>0.08078703703703703</v>
       </c>
       <c r="X8">
-        <v>0.07766491010001837</v>
+        <v>0.3640948024791563</v>
       </c>
       <c r="Y8">
-        <v>-0.04862337655369249</v>
+        <v>-0.2833077654421193</v>
       </c>
       <c r="Z8">
-        <v>0.1418015482054891</v>
+        <v>0.2281809231482018</v>
       </c>
       <c r="AA8">
-        <v>0.02259964388439939</v>
+        <v>0.03136961938246916</v>
       </c>
       <c r="AB8">
-        <v>0.07762443993906028</v>
+        <v>0.09600193258749684</v>
       </c>
       <c r="AC8">
-        <v>-0.05502479605466089</v>
+        <v>-0.06463231320502769</v>
       </c>
       <c r="AD8">
-        <v>0.065</v>
+        <v>214.8</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.065</v>
+        <v>214.8</v>
       </c>
       <c r="AG8">
-        <v>-3.105</v>
+        <v>203.2</v>
       </c>
       <c r="AH8">
-        <v>0.002008342345125908</v>
+        <v>0.874949083503055</v>
       </c>
       <c r="AI8">
-        <v>0.001689847913687768</v>
+        <v>0.7976234682510212</v>
       </c>
       <c r="AJ8">
-        <v>-0.1063538277102244</v>
+        <v>0.8687473279179136</v>
       </c>
       <c r="AK8">
-        <v>-0.08797280067998299</v>
+        <v>0.7885137757081877</v>
       </c>
       <c r="AL8">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>-0.397</v>
+        <v>-1.08</v>
       </c>
       <c r="AN8">
-        <v>0.052</v>
-      </c>
-      <c r="AO8">
-        <v>24.68085106382978</v>
+        <v>26.51851851851852</v>
       </c>
       <c r="AP8">
-        <v>-2.484</v>
+        <v>25.08641975308642</v>
       </c>
       <c r="AQ8">
-        <v>-2.921914357682619</v>
+        <v>-6.999999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1490,7 +1487,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arab Moltaqa Investments Company (CASE:AMIA)</t>
+          <t>ODIN Investments (S.A.E) (CASE:ODIN)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1499,46 +1496,43 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.14</v>
-      </c>
-      <c r="E9">
-        <v>0.187</v>
+        <v>-0.226</v>
       </c>
       <c r="G9">
-        <v>0.3634719710669078</v>
+        <v>-0.8907363420427554</v>
       </c>
       <c r="H9">
-        <v>0.3634719710669078</v>
+        <v>-0.8907363420427554</v>
       </c>
       <c r="I9">
-        <v>0.09873417721518987</v>
+        <v>-1.121140142517815</v>
       </c>
       <c r="J9">
-        <v>0.06969471332836931</v>
+        <v>-1.121140142517815</v>
       </c>
       <c r="K9">
-        <v>3.23</v>
+        <v>-0.187</v>
       </c>
       <c r="L9">
-        <v>0.05840867992766727</v>
+        <v>-0.4441805225653207</v>
       </c>
       <c r="M9">
-        <v>0.754</v>
+        <v>0.073</v>
       </c>
       <c r="N9">
-        <v>0.03866666666666667</v>
+        <v>0.001721698113207547</v>
       </c>
       <c r="O9">
-        <v>0.2334365325077399</v>
+        <v>-0.3903743315508021</v>
       </c>
       <c r="P9">
-        <v>0.754</v>
+        <v>0.073</v>
       </c>
       <c r="Q9">
-        <v>0.03866666666666667</v>
+        <v>0.001721698113207547</v>
       </c>
       <c r="R9">
-        <v>0.2334365325077399</v>
+        <v>-0.3903743315508021</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1547,70 +1541,70 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>15</v>
+        <v>1.65</v>
       </c>
       <c r="V9">
-        <v>0.7692307692307693</v>
+        <v>0.03891509433962264</v>
       </c>
       <c r="W9">
-        <v>0.08753387533875338</v>
+        <v>-0.01345323741007194</v>
       </c>
       <c r="X9">
-        <v>0.4239479526262345</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="Y9">
-        <v>-0.3364140772874811</v>
+        <v>-0.07799592360021293</v>
       </c>
       <c r="Z9">
-        <v>0.3974985623921794</v>
+        <v>0.03511259382819016</v>
       </c>
       <c r="AA9">
-        <v>0.02770354835436187</v>
+        <v>-0.03936613844870725</v>
       </c>
       <c r="AB9">
-        <v>0.1065624485362447</v>
+        <v>0.06454268619014099</v>
       </c>
       <c r="AC9">
-        <v>-0.07885890018188282</v>
+        <v>-0.1039088246388482</v>
       </c>
       <c r="AD9">
-        <v>149.3</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>149.3</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>134.3</v>
+        <v>-1.65</v>
       </c>
       <c r="AH9">
-        <v>0.884478672985782</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.7402082300446207</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.8732119635890767</v>
+        <v>-0.04049079754601227</v>
       </c>
       <c r="AK9">
-        <v>0.7193358328869844</v>
+        <v>-0.04477611940298507</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>-1.98</v>
+        <v>-0.186</v>
       </c>
       <c r="AN9">
-        <v>6.463203463203463</v>
+        <v>-0</v>
       </c>
       <c r="AP9">
-        <v>5.813852813852814</v>
+        <v>3.699551569506726</v>
       </c>
       <c r="AQ9">
-        <v>-2.757575757575758</v>
+        <v>2.537634408602151</v>
       </c>
     </row>
     <row r="10">
@@ -1621,7 +1615,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Odin Investments (CASE:ABRD)</t>
+          <t>Qalaa Holdings S.A.E. (CASE:CCAP)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1630,46 +1624,43 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.0209</v>
-      </c>
-      <c r="E10">
-        <v>-0.407</v>
+        <v>0.487</v>
       </c>
       <c r="G10">
-        <v>-0.3075396825396826</v>
+        <v>0.01428498021684394</v>
       </c>
       <c r="H10">
-        <v>-0.3075396825396826</v>
+        <v>0.01428498021684394</v>
       </c>
       <c r="I10">
-        <v>-0.2876984126984127</v>
+        <v>-0.05934946816710344</v>
       </c>
       <c r="J10">
-        <v>-0.1917989417989418</v>
+        <v>-0.05934946816710344</v>
       </c>
       <c r="K10">
-        <v>0.003</v>
+        <v>-121.9</v>
       </c>
       <c r="L10">
-        <v>0.005952380952380952</v>
+        <v>-0.06263809670623298</v>
       </c>
       <c r="M10">
-        <v>0.008</v>
+        <v>3.55</v>
       </c>
       <c r="N10">
-        <v>0.000522875816993464</v>
+        <v>0.02741312741312741</v>
       </c>
       <c r="O10">
-        <v>2.666666666666667</v>
+        <v>-0.02912223133716161</v>
       </c>
       <c r="P10">
-        <v>0.008</v>
+        <v>3.55</v>
       </c>
       <c r="Q10">
-        <v>0.000522875816993464</v>
+        <v>0.02741312741312741</v>
       </c>
       <c r="R10">
-        <v>2.666666666666667</v>
+        <v>-0.02912223133716161</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1678,201 +1669,73 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.838</v>
+        <v>336.2</v>
       </c>
       <c r="V10">
-        <v>0.05477124183006536</v>
+        <v>2.596138996138996</v>
       </c>
       <c r="W10">
-        <v>0.0002272727272727273</v>
+        <v>0.2757918552036199</v>
       </c>
       <c r="X10">
-        <v>0.07757387035638978</v>
+        <v>1.392872271932302</v>
       </c>
       <c r="Y10">
-        <v>-0.07734659762911705</v>
+        <v>-1.117080416728682</v>
       </c>
       <c r="Z10">
-        <v>0.04193011647254576</v>
+        <v>0.6760578058778572</v>
       </c>
       <c r="AA10">
-        <v>-0.008042151968940654</v>
+        <v>-0.04012367122906969</v>
       </c>
       <c r="AB10">
-        <v>0.07757387035638978</v>
+        <v>0.09937551413351677</v>
       </c>
       <c r="AC10">
-        <v>-0.08561602232533044</v>
+        <v>-0.1394991853625865</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>4017.9</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>4017.9</v>
       </c>
       <c r="AG10">
-        <v>-0.838</v>
+        <v>3681.7</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.968775618459758</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.9271934277934186</v>
       </c>
       <c r="AJ10">
-        <v>-0.05794495920342967</v>
+        <v>0.9660212006717045</v>
       </c>
       <c r="AK10">
-        <v>-0.03411774285481638</v>
+        <v>0.9210697488241769</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>249.6</v>
       </c>
       <c r="AM10">
-        <v>-0.14</v>
+        <v>227.2</v>
       </c>
       <c r="AN10">
-        <v>-0</v>
+        <v>59.17378497790869</v>
+      </c>
+      <c r="AO10">
+        <v>-0.4627403846153846</v>
       </c>
       <c r="AP10">
-        <v>6.546875</v>
+        <v>54.22238586156112</v>
       </c>
       <c r="AQ10">
-        <v>1.035714285714286</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Qalaa Holdings S.A.E. (CASE:CCAP)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>0.25</v>
-      </c>
-      <c r="G11">
-        <v>0.004110803324099723</v>
-      </c>
-      <c r="H11">
-        <v>0.004110803324099723</v>
-      </c>
-      <c r="I11">
-        <v>-0.06703601108033241</v>
-      </c>
-      <c r="J11">
-        <v>-0.06703601108033241</v>
-      </c>
-      <c r="K11">
-        <v>23.3</v>
-      </c>
-      <c r="L11">
-        <v>0.02581717451523546</v>
-      </c>
-      <c r="M11">
-        <v>11.7</v>
-      </c>
-      <c r="N11">
-        <v>0.05426716141001855</v>
-      </c>
-      <c r="O11">
-        <v>0.502145922746781</v>
-      </c>
-      <c r="P11">
-        <v>11.7</v>
-      </c>
-      <c r="Q11">
-        <v>0.05426716141001855</v>
-      </c>
-      <c r="R11">
-        <v>0.502145922746781</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>250.3</v>
-      </c>
-      <c r="V11">
-        <v>1.160946196660482</v>
-      </c>
-      <c r="W11">
-        <v>-0.067438494934877</v>
-      </c>
-      <c r="X11">
-        <v>0.8301987942922971</v>
-      </c>
-      <c r="Y11">
-        <v>-0.8976372892271741</v>
-      </c>
-      <c r="Z11">
-        <v>0.3724260306194033</v>
-      </c>
-      <c r="AA11">
-        <v>-0.02496595551520654</v>
-      </c>
-      <c r="AB11">
-        <v>0.10571225428921</v>
-      </c>
-      <c r="AC11">
-        <v>-0.1306782098044165</v>
-      </c>
-      <c r="AD11">
-        <v>3586.8</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>3586.8</v>
-      </c>
-      <c r="AG11">
-        <v>3336.5</v>
-      </c>
-      <c r="AH11">
-        <v>0.9432989690721649</v>
-      </c>
-      <c r="AI11">
-        <v>0.8173738662777449</v>
-      </c>
-      <c r="AJ11">
-        <v>0.9393035105993638</v>
-      </c>
-      <c r="AK11">
-        <v>0.8063268807849393</v>
-      </c>
-      <c r="AL11">
-        <v>120.3</v>
-      </c>
-      <c r="AM11">
-        <v>104.9</v>
-      </c>
-      <c r="AN11">
-        <v>-144.6290322580645</v>
-      </c>
-      <c r="AO11">
-        <v>-0.5029093931837074</v>
-      </c>
-      <c r="AP11">
-        <v>-134.5362903225806</v>
-      </c>
-      <c r="AQ11">
-        <v>-0.5767397521448999</v>
+        <v>-0.508362676056338</v>
       </c>
     </row>
   </sheetData>
